--- a/data/trans_orig/P36B13_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B13_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C766329B-2555-42A5-ACC0-810000A77911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3E750CC-3C28-4C70-9A19-A08C6C84E90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{074C4AFF-296B-474C-A4A7-C5FD1BD2CFAC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0A59C5BF-89D0-4D2D-87F4-7185810C0A2A}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="161">
   <si>
     <t>Población que consume comida rápida al menos 3 veces por semana en 2015 (Tasa respuesta: 99,44%)</t>
   </si>
@@ -75,373 +75,379 @@
     <t>9,18%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
   </si>
   <si>
     <t>4,61%</t>
   </si>
   <si>
-    <t>3,28%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume comida rápida al menos 3 veces por semana en 2023 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
   </si>
   <si>
     <t>93,95%</t>
   </si>
   <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
   </si>
   <si>
     <t>6,92%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>93,08%</t>
   </si>
   <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume comida rápida al menos 3 veces por semana en 2023 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
+    <t>97,11%</t>
   </si>
   <si>
     <t>96,44%</t>
@@ -450,70 +456,70 @@
     <t>94,39%</t>
   </si>
   <si>
-    <t>97,88%</t>
+    <t>97,76%</t>
   </si>
   <si>
     <t>95,96%</t>
   </si>
   <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
   </si>
   <si>
     <t>8,96%</t>
   </si>
   <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
   </si>
   <si>
     <t>3,81%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
   </si>
   <si>
     <t>91,04%</t>
   </si>
   <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
   </si>
   <si>
     <t>96,19%</t>
   </si>
   <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>93,76%</t>
   </si>
   <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
   </si>
 </sst>
 </file>
@@ -925,7 +931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C7B864-C936-4309-8FCD-AB4C2733E38D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DEB4548-5BAA-4B3F-B0D2-300E124D9433}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1267,7 +1273,7 @@
         <v>1711</v>
       </c>
       <c r="I8" s="7">
-        <v>1788000</v>
+        <v>1787999</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1318,7 +1324,7 @@
         <v>1900</v>
       </c>
       <c r="I9" s="7">
-        <v>1978806</v>
+        <v>1978805</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1407,7 +1413,7 @@
         <v>455</v>
       </c>
       <c r="D11" s="7">
-        <v>498265</v>
+        <v>498264</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1458,7 +1464,7 @@
         <v>499</v>
       </c>
       <c r="D12" s="7">
-        <v>543966</v>
+        <v>543965</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1592,7 +1598,7 @@
         <v>5833</v>
       </c>
       <c r="N14" s="7">
-        <v>6178139</v>
+        <v>6178138</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1643,7 +1649,7 @@
         <v>6504</v>
       </c>
       <c r="N15" s="7">
-        <v>6865737</v>
+        <v>6865736</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1676,7 +1682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E82415-9DD6-4545-873F-8DC185B61829}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9222750-4D60-4556-96F4-63B21F1539C8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1976,7 +1982,7 @@
         <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>239</v>
@@ -1985,13 +1991,13 @@
         <v>328821</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2006,13 +2012,13 @@
         <v>1926687</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>2804</v>
@@ -2021,13 +2027,13 @@
         <v>2145717</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>4660</v>
@@ -2036,13 +2042,13 @@
         <v>4072404</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2110,13 +2116,13 @@
         <v>30537</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -2125,13 +2131,13 @@
         <v>25345</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -2140,13 +2146,13 @@
         <v>55881</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,13 +2167,13 @@
         <v>642502</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>979</v>
@@ -2176,13 +2182,13 @@
         <v>686130</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>1636</v>
@@ -2191,13 +2197,13 @@
         <v>1328633</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,13 +2271,13 @@
         <v>302122</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>157</v>
@@ -2280,13 +2286,13 @@
         <v>144532</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>353</v>
@@ -2295,13 +2301,13 @@
         <v>446654</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,13 +2322,13 @@
         <v>3070259</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>5182</v>
@@ -2331,13 +2337,13 @@
         <v>3644921</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>8345</v>
@@ -2346,13 +2352,13 @@
         <v>6715180</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B13_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B13_R-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3E750CC-3C28-4C70-9A19-A08C6C84E90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C0EB385-E440-47F4-ADCD-97A3163D5C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0A59C5BF-89D0-4D2D-87F4-7185810C0A2A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8048479E-9ED0-4CF8-B8EB-545A1577ECA0}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="161">
-  <si>
-    <t>Población que consume comida rápida al menos 3 veces por semana en 2015 (Tasa respuesta: 99,44%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="157">
+  <si>
+    <t>Población que consume comida rápida al menos 3 veces por semana en 2016 (Tasa respuesta: 99,44%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,28 +75,28 @@
     <t>9,18%</t>
   </si>
   <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
   </si>
   <si>
     <t>4,61%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
   </si>
   <si>
     <t>6,58%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>90,82%</t>
   </si>
   <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>95,39%</t>
   </si>
   <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
   </si>
   <si>
     <t>93,42%</t>
   </si>
   <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>14,42%</t>
   </si>
   <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
   </si>
   <si>
     <t>9,64%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
   </si>
   <si>
     <t>12,08%</t>
   </si>
   <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
   </si>
   <si>
     <t>85,58%</t>
   </si>
   <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
   </si>
   <si>
     <t>90,36%</t>
   </si>
   <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
   </si>
   <si>
     <t>87,92%</t>
   </si>
   <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,109 +195,109 @@
     <t>8,4%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
   </si>
   <si>
     <t>7,78%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
   </si>
   <si>
     <t>91,6%</t>
   </si>
   <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
   </si>
   <si>
     <t>92,83%</t>
   </si>
   <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
   </si>
   <si>
     <t>92,22%</t>
   </si>
   <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
   </si>
   <si>
     <t>12,28%</t>
   </si>
   <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
   </si>
   <si>
     <t>7,85%</t>
   </si>
   <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
   </si>
   <si>
     <t>10,01%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
   </si>
   <si>
     <t>87,72%</t>
   </si>
   <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
   </si>
   <si>
     <t>92,15%</t>
   </si>
   <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
   </si>
   <si>
     <t>89,99%</t>
   </si>
   <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -360,9 +360,6 @@
     <t>96,49%</t>
   </si>
   <si>
-    <t>10,77%</t>
-  </si>
-  <si>
     <t>7,99%</t>
   </si>
   <si>
@@ -372,9 +369,6 @@
     <t>4,3%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
     <t>5,34%</t>
   </si>
   <si>
@@ -387,9 +381,6 @@
     <t>12,3%</t>
   </si>
   <si>
-    <t>89,23%</t>
-  </si>
-  <si>
     <t>81,61%</t>
   </si>
   <si>
@@ -400,9 +391,6 @@
   </si>
   <si>
     <t>94,66%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
   </si>
   <si>
     <t>92,53%</t>
@@ -931,7 +919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DEB4548-5BAA-4B3F-B0D2-300E124D9433}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152637E9-4F15-4946-81FF-795A33D5EBD0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1598,7 +1586,7 @@
         <v>5833</v>
       </c>
       <c r="N14" s="7">
-        <v>6178138</v>
+        <v>6178139</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1649,7 +1637,7 @@
         <v>6504</v>
       </c>
       <c r="N15" s="7">
-        <v>6865736</v>
+        <v>6865737</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1682,7 +1670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9222750-4D60-4556-96F4-63B21F1539C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9620C4-9081-428F-ADCC-1F3DF12E7506}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1961,13 +1949,13 @@
         <v>232513</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>106</v>
@@ -1976,13 +1964,13 @@
         <v>96308</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>239</v>
@@ -1991,13 +1979,13 @@
         <v>328821</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2012,13 +2000,13 @@
         <v>1926687</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>2804</v>
@@ -2027,13 +2015,13 @@
         <v>2145717</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
         <v>4660</v>
@@ -2042,13 +2030,13 @@
         <v>4072404</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,13 +2104,13 @@
         <v>30537</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -2131,13 +2119,13 @@
         <v>25345</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -2146,13 +2134,13 @@
         <v>55881</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,13 +2155,13 @@
         <v>642502</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>979</v>
@@ -2182,13 +2170,13 @@
         <v>686130</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>1636</v>
@@ -2197,13 +2185,13 @@
         <v>1328633</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,13 +2259,13 @@
         <v>302122</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>157</v>
@@ -2286,13 +2274,13 @@
         <v>144532</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>353</v>
@@ -2301,13 +2289,13 @@
         <v>446654</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,13 +2310,13 @@
         <v>3070259</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>5182</v>
@@ -2337,13 +2325,13 @@
         <v>3644921</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>8345</v>
@@ -2352,13 +2340,13 @@
         <v>6715180</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B13_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B13_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C0EB385-E440-47F4-ADCD-97A3163D5C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DEF3EB6-A0A1-4693-91A9-8B728619A14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8048479E-9ED0-4CF8-B8EB-545A1577ECA0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4072D8DB-BD92-4327-A18D-074BFD9C039D}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
   <si>
     <t>Población que consume comida rápida al menos 3 veces por semana en 2016 (Tasa respuesta: 99,44%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>9,18%</t>
   </si>
   <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
   </si>
   <si>
     <t>4,61%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
   </si>
   <si>
     <t>6,58%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>90,82%</t>
   </si>
   <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
   </si>
   <si>
     <t>95,39%</t>
   </si>
   <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
   </si>
   <si>
     <t>93,42%</t>
   </si>
   <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,283 +138,289 @@
     <t>14,42%</t>
   </si>
   <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
   </si>
   <si>
     <t>9,64%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
   </si>
   <si>
     <t>12,08%</t>
   </si>
   <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
     <t>11,07%</t>
   </si>
   <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
   </si>
   <si>
     <t>88,93%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
+    <t>93,91%</t>
   </si>
   <si>
     <t>92,83%</t>
   </si>
   <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
     <t>90,62%</t>
   </si>
   <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
+    <t>93,74%</t>
   </si>
   <si>
     <t>12,28%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
   </si>
   <si>
     <t>7,85%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
   </si>
   <si>
     <t>10,01%</t>
   </si>
   <si>
-    <t>9,34%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume comida rápida al menos 3 veces por semana en 2023 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>10,77%</t>
   </si>
   <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
   </si>
   <si>
     <t>89,23%</t>
   </si>
   <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume comida rápida al menos 3 veces por semana en 2023 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
   </si>
   <si>
     <t>95,7%</t>
   </si>
   <si>
-    <t>94,66%</t>
+    <t>96,64%</t>
   </si>
   <si>
     <t>92,53%</t>
   </si>
   <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>2,24%</t>
+    <t>2,12%</t>
   </si>
   <si>
     <t>5,61%</t>
@@ -423,19 +429,19 @@
     <t>4,04%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
   </si>
   <si>
     <t>95,46%</t>
   </si>
   <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
   </si>
   <si>
     <t>96,44%</t>
@@ -444,70 +450,70 @@
     <t>94,39%</t>
   </si>
   <si>
-    <t>97,76%</t>
+    <t>97,88%</t>
   </si>
   <si>
     <t>95,96%</t>
   </si>
   <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
   </si>
   <si>
     <t>8,96%</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
   </si>
   <si>
     <t>3,81%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
   </si>
   <si>
     <t>91,04%</t>
   </si>
   <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
   </si>
   <si>
     <t>96,19%</t>
   </si>
   <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
   </si>
   <si>
     <t>93,76%</t>
   </si>
   <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
 </sst>
 </file>
@@ -919,7 +925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152637E9-4F15-4946-81FF-795A33D5EBD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BFB436-052C-4BD9-91A9-6B818FA7BC73}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1261,7 +1267,7 @@
         <v>1711</v>
       </c>
       <c r="I8" s="7">
-        <v>1787999</v>
+        <v>1788000</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1312,7 +1318,7 @@
         <v>1900</v>
       </c>
       <c r="I9" s="7">
-        <v>1978805</v>
+        <v>1978806</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1401,7 +1407,7 @@
         <v>455</v>
       </c>
       <c r="D11" s="7">
-        <v>498264</v>
+        <v>498265</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1452,7 +1458,7 @@
         <v>499</v>
       </c>
       <c r="D12" s="7">
-        <v>543965</v>
+        <v>543966</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1670,7 +1676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9620C4-9081-428F-ADCC-1F3DF12E7506}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C84BA36-23D7-432C-BE81-03F458DAFA4B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1949,13 +1955,13 @@
         <v>232513</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>106</v>
@@ -1964,13 +1970,13 @@
         <v>96308</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="M7" s="7">
         <v>239</v>
@@ -1979,13 +1985,13 @@
         <v>328821</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,13 +2006,13 @@
         <v>1926687</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>2804</v>
@@ -2015,13 +2021,13 @@
         <v>2145717</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>4660</v>
@@ -2030,13 +2036,13 @@
         <v>4072404</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2104,13 +2110,13 @@
         <v>30537</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -2119,13 +2125,13 @@
         <v>25345</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -2134,13 +2140,13 @@
         <v>55881</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,13 +2161,13 @@
         <v>642502</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>979</v>
@@ -2170,13 +2176,13 @@
         <v>686130</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>1636</v>
@@ -2185,13 +2191,13 @@
         <v>1328633</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,13 +2265,13 @@
         <v>302122</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>157</v>
@@ -2274,13 +2280,13 @@
         <v>144532</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>353</v>
@@ -2289,13 +2295,13 @@
         <v>446654</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,13 +2316,13 @@
         <v>3070259</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>5182</v>
@@ -2325,13 +2331,13 @@
         <v>3644921</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>8345</v>
@@ -2340,13 +2346,13 @@
         <v>6715180</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B13_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B13_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DEF3EB6-A0A1-4693-91A9-8B728619A14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7A7C734-D3BC-43A0-986D-618F7696C5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4072D8DB-BD92-4327-A18D-074BFD9C039D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2B9BA447-478B-4729-B9A8-3C8F4478DB42}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="157">
   <si>
     <t>Población que consume comida rápida al menos 3 veces por semana en 2016 (Tasa respuesta: 99,44%)</t>
   </si>
@@ -306,214 +306,208 @@
     <t>Población que consume comida rápida al menos 3 veces por semana en 2023 (Tasa respuesta: 99,75%)</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
   </si>
 </sst>
 </file>
@@ -925,7 +919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BFB436-052C-4BD9-91A9-6B818FA7BC73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0059A82-CC3D-4A7C-B8B7-84EF566E4594}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1267,7 +1261,7 @@
         <v>1711</v>
       </c>
       <c r="I8" s="7">
-        <v>1788000</v>
+        <v>1787999</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1318,7 +1312,7 @@
         <v>1900</v>
       </c>
       <c r="I9" s="7">
-        <v>1978806</v>
+        <v>1978805</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1407,7 +1401,7 @@
         <v>455</v>
       </c>
       <c r="D11" s="7">
-        <v>498265</v>
+        <v>498264</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1458,7 +1452,7 @@
         <v>499</v>
       </c>
       <c r="D12" s="7">
-        <v>543966</v>
+        <v>543965</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1676,7 +1670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C84BA36-23D7-432C-BE81-03F458DAFA4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F508F2DB-AFB9-446E-94A8-1D3C373A60B0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1797,7 +1791,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="7">
-        <v>39072</v>
+        <v>35931</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>89</v>
@@ -1812,7 +1806,7 @@
         <v>28</v>
       </c>
       <c r="I4" s="7">
-        <v>22879</v>
+        <v>19269</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -1827,7 +1821,7 @@
         <v>67</v>
       </c>
       <c r="N4" s="7">
-        <v>61951</v>
+        <v>55200</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>95</v>
@@ -1848,7 +1842,7 @@
         <v>650</v>
       </c>
       <c r="D5" s="7">
-        <v>501070</v>
+        <v>477576</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>98</v>
@@ -1863,7 +1857,7 @@
         <v>1399</v>
       </c>
       <c r="I5" s="7">
-        <v>813074</v>
+        <v>736239</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>101</v>
@@ -1878,7 +1872,7 @@
         <v>2049</v>
       </c>
       <c r="N5" s="7">
-        <v>1314143</v>
+        <v>1213815</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>104</v>
@@ -1899,7 +1893,7 @@
         <v>689</v>
       </c>
       <c r="D6" s="7">
-        <v>540142</v>
+        <v>513507</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1914,7 +1908,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1929,7 +1923,7 @@
         <v>2116</v>
       </c>
       <c r="N6" s="7">
-        <v>1376094</v>
+        <v>1269015</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1952,7 +1946,7 @@
         <v>133</v>
       </c>
       <c r="D7" s="7">
-        <v>232513</v>
+        <v>412612</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>107</v>
@@ -1967,7 +1961,7 @@
         <v>106</v>
       </c>
       <c r="I7" s="7">
-        <v>96308</v>
+        <v>82882</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>110</v>
@@ -1976,16 +1970,16 @@
         <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>239</v>
       </c>
       <c r="N7" s="7">
-        <v>328821</v>
+        <v>495495</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>113</v>
@@ -2003,7 +1997,7 @@
         <v>1856</v>
       </c>
       <c r="D8" s="7">
-        <v>1926687</v>
+        <v>1875000</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>115</v>
@@ -2018,25 +2012,25 @@
         <v>2804</v>
       </c>
       <c r="I8" s="7">
-        <v>2145717</v>
+        <v>2147942</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>118</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M8" s="7">
         <v>4660</v>
       </c>
       <c r="N8" s="7">
-        <v>4072404</v>
+        <v>4022942</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>121</v>
@@ -2054,7 +2048,7 @@
         <v>1989</v>
       </c>
       <c r="D9" s="7">
-        <v>2159200</v>
+        <v>2287612</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2069,7 +2063,7 @@
         <v>2910</v>
       </c>
       <c r="I9" s="7">
-        <v>2242025</v>
+        <v>2230824</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2084,7 +2078,7 @@
         <v>4899</v>
       </c>
       <c r="N9" s="7">
-        <v>4401225</v>
+        <v>4518437</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2107,7 +2101,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>30537</v>
+        <v>28015</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>123</v>
@@ -2122,7 +2116,7 @@
         <v>23</v>
       </c>
       <c r="I10" s="7">
-        <v>25345</v>
+        <v>23582</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>126</v>
@@ -2137,7 +2131,7 @@
         <v>47</v>
       </c>
       <c r="N10" s="7">
-        <v>55881</v>
+        <v>51597</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>129</v>
@@ -2158,7 +2152,7 @@
         <v>657</v>
       </c>
       <c r="D11" s="7">
-        <v>642502</v>
+        <v>618608</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>132</v>
@@ -2173,7 +2167,7 @@
         <v>979</v>
       </c>
       <c r="I11" s="7">
-        <v>686130</v>
+        <v>634639</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>135</v>
@@ -2188,7 +2182,7 @@
         <v>1636</v>
       </c>
       <c r="N11" s="7">
-        <v>1328633</v>
+        <v>1253248</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>138</v>
@@ -2209,7 +2203,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2224,7 +2218,7 @@
         <v>1002</v>
       </c>
       <c r="I12" s="7">
-        <v>711475</v>
+        <v>658221</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2239,7 +2233,7 @@
         <v>1683</v>
       </c>
       <c r="N12" s="7">
-        <v>1384514</v>
+        <v>1304845</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2262,7 +2256,7 @@
         <v>196</v>
       </c>
       <c r="D13" s="7">
-        <v>302122</v>
+        <v>476559</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>141</v>
@@ -2277,31 +2271,31 @@
         <v>157</v>
       </c>
       <c r="I13" s="7">
-        <v>144532</v>
+        <v>125733</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>353</v>
       </c>
       <c r="N13" s="7">
-        <v>446654</v>
+        <v>602292</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,46 +2307,46 @@
         <v>3163</v>
       </c>
       <c r="D14" s="7">
-        <v>3070259</v>
+        <v>2971184</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>5182</v>
       </c>
       <c r="I14" s="7">
-        <v>3644921</v>
+        <v>3518820</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="M14" s="7">
         <v>8345</v>
       </c>
       <c r="N14" s="7">
-        <v>6715180</v>
+        <v>6490004</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,7 +2358,7 @@
         <v>3359</v>
       </c>
       <c r="D15" s="7">
-        <v>3372381</v>
+        <v>3447743</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2379,7 +2373,7 @@
         <v>5339</v>
       </c>
       <c r="I15" s="7">
-        <v>3789453</v>
+        <v>3644553</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2394,7 +2388,7 @@
         <v>8698</v>
       </c>
       <c r="N15" s="7">
-        <v>7161834</v>
+        <v>7092296</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
